--- a/biology/Botanique/Joseph_Léon_Lignières/Joseph_Léon_Lignières.xlsx
+++ b/biology/Botanique/Joseph_Léon_Lignières/Joseph_Léon_Lignières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9on_Ligni%C3%A8res</t>
+          <t>Joseph_Léon_Lignières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Léon Lignières (26 mars 1868 à Saint-Mihiel - 19 octobre 1933 à Buenos-Aires) est un vétérinaire et bactériologiste franco-argentin, qui est l'autorité binomiale pour le genre de bactérie Salmonella.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9on_Ligni%C3%A8res</t>
+          <t>Joseph_Léon_Lignières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Léon Marcel Lignières est à Saint-Mihiel dans la Meuse. Il est élève à l'École vétérinaire d'Alfort de 1886 à 1890. Fin 1890, il est nommé au poste de répétiteur auxiliaire de la chaire des maladies contagieuses laquelle est présidée par Edmond Nocard[1]. Il est chef des travaux à partir de 1894 et jusqu'en janvier 1898[1]. Joseph Léon Lignières a décrit durant cette période le genre d'acariens Hemisarcoptes et il commence  sa carrière bactériologique avec l'étude des pasteurelloses avec la description en 1898, de la septicémie hémorragique chez le mouton puis en 1900 de la Pasteurellose[2].
-Le 1er janvier 1898, il est chargé d'une mission en Argentine pour y étudier les maladies infectieuses telles que la «tristeza» et la «malaria bovine»[1]. Renouvelée, sa mission le conduit à organiser le laboratoire de bactériologie de Buenos-Aires[1]. Il étudie les salmonelloses et décrit le genre Salmonella en 1900[2]. Il travaille ensuite sur les sérums et vaccins, notamment le vaccin de la fièvre aphteuse, la malaria bovine, l'anaplasmose bovine, la piroplasmose bovine (fièvre du Texas), le mal de Caderas[1].
-Joseph Léon Lignières devient professeur de bactériologie à la Faculté vétérinaire et d'agronomie de Buenos-Aires et directeur de l'Institut national de bactériologie de cette même ville[1],[3].
-Il décrit l'actinobacillose et isole Actinobacillus[2] et travaille sur les actinomycoses, la strongylose gastro-intestinale du mouton, et la fièvre aphteuse[1]. En 1912, il publie la première description d'artériosclérose du mouton[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Léon Marcel Lignières est à Saint-Mihiel dans la Meuse. Il est élève à l'École vétérinaire d'Alfort de 1886 à 1890. Fin 1890, il est nommé au poste de répétiteur auxiliaire de la chaire des maladies contagieuses laquelle est présidée par Edmond Nocard. Il est chef des travaux à partir de 1894 et jusqu'en janvier 1898. Joseph Léon Lignières a décrit durant cette période le genre d'acariens Hemisarcoptes et il commence  sa carrière bactériologique avec l'étude des pasteurelloses avec la description en 1898, de la septicémie hémorragique chez le mouton puis en 1900 de la Pasteurellose.
+Le 1er janvier 1898, il est chargé d'une mission en Argentine pour y étudier les maladies infectieuses telles que la «tristeza» et la «malaria bovine». Renouvelée, sa mission le conduit à organiser le laboratoire de bactériologie de Buenos-Aires. Il étudie les salmonelloses et décrit le genre Salmonella en 1900. Il travaille ensuite sur les sérums et vaccins, notamment le vaccin de la fièvre aphteuse, la malaria bovine, l'anaplasmose bovine, la piroplasmose bovine (fièvre du Texas), le mal de Caderas.
+Joseph Léon Lignières devient professeur de bactériologie à la Faculté vétérinaire et d'agronomie de Buenos-Aires et directeur de l'Institut national de bactériologie de cette même ville,.
+Il décrit l'actinobacillose et isole Actinobacillus et travaille sur les actinomycoses, la strongylose gastro-intestinale du mouton, et la fièvre aphteuse. En 1912, il publie la première description d'artériosclérose du mouton.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9on_Ligni%C3%A8res</t>
+          <t>Joseph_Léon_Lignières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Joseph Léon Lignières, « Maladies du porc », Bulletin of the Society for Central Medical Veterinarians, vol. 18,‎ 1900, p. 389-431[2]
-Joseph Léon Lignières, « Contribution à l’etude et à la classification des septicémies hémorrhagiques. Les Pasteurelloses. », Ann. Inst. Pasteur, vol. 15,‎ 1900, p. 734-736[2]
-Joseph Léon Lignières et J. Spitz, « Contribution à l’étude des affections connues sous le nom  d’actinomycose – actinobacilllose. », Rev. Soc. Med. Arg., vol. 5,‎ 1902, p. 105[2]
-Joseph Léon Lignières et J. Spitz, « Contribution à l’étude des affections connues sous le nom  d’actinomycose. », Arch. Parasitol., vol. 7,‎ 1903, p. 248[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Joseph Léon Lignières, « Maladies du porc », Bulletin of the Society for Central Medical Veterinarians, vol. 18,‎ 1900, p. 389-431
+Joseph Léon Lignières, « Contribution à l’etude et à la classification des septicémies hémorrhagiques. Les Pasteurelloses. », Ann. Inst. Pasteur, vol. 15,‎ 1900, p. 734-736
+Joseph Léon Lignières et J. Spitz, « Contribution à l’étude des affections connues sous le nom  d’actinomycose – actinobacilllose. », Rev. Soc. Med. Arg., vol. 5,‎ 1902, p. 105
+Joseph Léon Lignières et J. Spitz, « Contribution à l’étude des affections connues sous le nom  d’actinomycose. », Arch. Parasitol., vol. 7,‎ 1903, p. 248</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9on_Ligni%C3%A8res</t>
+          <t>Joseph_Léon_Lignières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Société savantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Joseph Léon Lignières a été membre de divers institut et sociétés savantes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Joseph Léon Lignières a été membre de divers institut et sociétés savantes :
 Élu correspondant national de l'Académie de médecine pour la division de médecine vétérinaire le 27 janvier 1920
 Membre honoraire de l'Académie vétérinaire
 Membre non résidant de l'Académie d'Agriculture
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9on_Ligni%C3%A8res</t>
+          <t>Joseph_Léon_Lignières</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tout au long de sa carrière, Lignières a reçu divers prix[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tout au long de sa carrière, Lignières a reçu divers prix :
 Lauréat de l'Institut
 Lauréat de l'Académie de Médecine
 Lauréat de l'Académie d'Agriculture
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9on_Ligni%C3%A8res</t>
+          <t>Joseph_Léon_Lignières</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,9 +669,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La bactérie Actinobacillus lignieresii a été nommé en son honneur[2].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La bactérie Actinobacillus lignieresii a été nommé en son honneur.</t>
         </is>
       </c>
     </row>
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Joseph_L%C3%A9on_Ligni%C3%A8res</t>
+          <t>Joseph_Léon_Lignières</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,9 +701,11 @@
           <t>Autorité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il devient l'autorité binomiale en taxonomie pour le genre bactérien Salmonella[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient l'autorité binomiale en taxonomie pour le genre bactérien Salmonella.
 Lignières est l'abréviation d'autorité utilisée pour indiquer cette personne comme l'auteur lors de la citation d'un nom botanique.
 Lignières est l’abréviation botanique standard de Joseph Léon Lignières.
 Consulter la liste des abréviations d'auteur en botanique ou la liste des plantes assignées à cet auteur par l'IPNI
